--- a/data/datasets/fossil/fossil_ds.xlsx
+++ b/data/datasets/fossil/fossil_ds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python\KYC\datasets\fossil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Me\GitHub\KYC\data\datasets\fossil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F3C915-78D6-464F-988C-EA1A29F204D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199987A5-1C24-45BC-BA12-452AB3898DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{9FFA3018-9BE3-4B15-9A2D-65E1C440FC8B}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{9FFA3018-9BE3-4B15-9A2D-65E1C440FC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -791,8 +791,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -808,7 +808,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1106,30 +1106,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0056F4C-6301-4B1E-98A1-143629FF2C15}">
   <dimension ref="A1:P63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="P58" sqref="P58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="62.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="62.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>221</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>108</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -1292,11 +1292,11 @@
       <c r="O4" t="s">
         <v>177</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -1330,11 +1330,11 @@
       <c r="O5" t="s">
         <v>177</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -1368,11 +1368,11 @@
       <c r="O6" t="s">
         <v>177</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -1403,11 +1403,11 @@
       <c r="N7" t="s">
         <v>67</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -1658,11 +1658,11 @@
       <c r="O13" t="s">
         <v>176</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -1696,11 +1696,11 @@
       <c r="O14" t="s">
         <v>176</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>107</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>98</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>100</v>
       </c>
@@ -2076,11 +2076,11 @@
       <c r="O24" t="s">
         <v>176</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2120,11 +2120,11 @@
       <c r="O25" t="s">
         <v>176</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2164,11 +2164,11 @@
       <c r="O26" t="s">
         <v>176</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>103</v>
       </c>
@@ -2208,11 +2208,11 @@
       <c r="O27" t="s">
         <v>176</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>106</v>
       </c>
@@ -2322,11 +2322,11 @@
       <c r="O30" t="s">
         <v>177</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -2357,11 +2357,11 @@
       <c r="O31" t="s">
         <v>176</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2401,11 +2401,11 @@
       <c r="O32" t="s">
         <v>176</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -2445,11 +2445,11 @@
       <c r="O33" t="s">
         <v>176</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -2483,11 +2483,11 @@
       <c r="N34" t="s">
         <v>67</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -2527,11 +2527,11 @@
       <c r="N35" t="s">
         <v>67</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2571,11 +2571,11 @@
       <c r="O36" t="s">
         <v>177</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -2615,11 +2615,11 @@
       <c r="O37" t="s">
         <v>178</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>115</v>
       </c>
@@ -2656,11 +2656,11 @@
       <c r="O38" t="s">
         <v>176</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>116</v>
       </c>
@@ -2700,11 +2700,11 @@
       <c r="O39" t="s">
         <v>175</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>117</v>
       </c>
@@ -2744,11 +2744,11 @@
       <c r="O40" t="s">
         <v>177</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -2788,11 +2788,11 @@
       <c r="O41" t="s">
         <v>177</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>119</v>
       </c>
@@ -2835,11 +2835,11 @@
       <c r="O42" t="s">
         <v>177</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -2879,11 +2879,11 @@
       <c r="O43" t="s">
         <v>177</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>121</v>
       </c>
@@ -2917,11 +2917,11 @@
       <c r="O44" t="s">
         <v>177</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -2955,11 +2955,11 @@
       <c r="M45" t="s">
         <v>81</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>123</v>
       </c>
@@ -2999,11 +2999,11 @@
       <c r="O46" t="s">
         <v>177</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -3040,11 +3040,11 @@
       <c r="O47" t="s">
         <v>177</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>125</v>
       </c>
@@ -3075,11 +3075,11 @@
       <c r="O48" t="s">
         <v>177</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>126</v>
       </c>
@@ -3116,11 +3116,11 @@
       <c r="O49" t="s">
         <v>177</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>127</v>
       </c>
@@ -3148,11 +3148,11 @@
       <c r="M50" t="s">
         <v>81</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>128</v>
       </c>
@@ -3186,11 +3186,11 @@
       <c r="O51" t="s">
         <v>177</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -3227,11 +3227,11 @@
       <c r="O52" t="s">
         <v>176</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -3265,11 +3265,11 @@
       <c r="O53" t="s">
         <v>177</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>131</v>
       </c>
@@ -3306,11 +3306,11 @@
       <c r="O54" t="s">
         <v>177</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>133</v>
       </c>
@@ -3344,11 +3344,11 @@
       <c r="O55" t="s">
         <v>177</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -3382,11 +3382,11 @@
       <c r="O56" t="s">
         <v>177</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>134</v>
       </c>
@@ -3417,11 +3417,11 @@
       <c r="M57" t="s">
         <v>81</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>135</v>
       </c>
@@ -3458,31 +3458,31 @@
       <c r="N58" t="s">
         <v>67</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>53</v>
       </c>
@@ -3496,8 +3496,47 @@
     <hyperlink ref="P17" r:id="rId4" xr:uid="{AB567814-AA74-4CBF-A2BE-76C980334772}"/>
     <hyperlink ref="P18" r:id="rId5" xr:uid="{0E7B6070-A1BB-4D9A-A5E1-492A409D0106}"/>
     <hyperlink ref="P23" r:id="rId6" xr:uid="{5794788C-194F-4188-9DE9-C589BEEC9E03}"/>
+    <hyperlink ref="P4" r:id="rId7" xr:uid="{C699880F-6AB0-449F-9C30-C70D6C1AC872}"/>
+    <hyperlink ref="P5" r:id="rId8" xr:uid="{7F218567-04C0-429D-A28E-5E1ED2EB8BF7}"/>
+    <hyperlink ref="P6" r:id="rId9" xr:uid="{19F6BC8A-D2AE-466E-A240-9128C811BBBD}"/>
+    <hyperlink ref="P7" r:id="rId10" xr:uid="{1362885F-95A9-4DFA-9C51-E3AE2DE039A9}"/>
+    <hyperlink ref="P24" r:id="rId11" xr:uid="{9F569E6F-F4D1-4486-9945-5D601E8FB578}"/>
+    <hyperlink ref="P25" r:id="rId12" xr:uid="{9F713DA3-07F7-4DBA-AF88-356EC5CCE894}"/>
+    <hyperlink ref="P26" r:id="rId13" xr:uid="{7DCC0027-2337-4B88-9B76-0B9AE9CD63B1}"/>
+    <hyperlink ref="P27" r:id="rId14" xr:uid="{72FD5780-0849-4BAD-BB35-7FA0429C8C4C}"/>
+    <hyperlink ref="P13" r:id="rId15" xr:uid="{421BB25F-4B0A-4936-9409-00B9AA63C144}"/>
+    <hyperlink ref="P14" r:id="rId16" xr:uid="{85EDAE6C-47C8-455B-925F-969216B62B47}"/>
+    <hyperlink ref="P58" r:id="rId17" xr:uid="{36A28264-F4E5-47A5-8096-5746838BDC02}"/>
+    <hyperlink ref="P30" r:id="rId18" xr:uid="{61F2B982-FFCC-4921-A544-4F7602989C91}"/>
+    <hyperlink ref="P31" r:id="rId19" xr:uid="{146FA8AC-D79C-44F4-88DD-A5CFA74C60F7}"/>
+    <hyperlink ref="P32" r:id="rId20" xr:uid="{7FF514C2-35C0-44B2-82A1-908DCA08EDE1}"/>
+    <hyperlink ref="P33" r:id="rId21" xr:uid="{C295A068-44A2-4AAA-9095-E590EB7F1855}"/>
+    <hyperlink ref="P34" r:id="rId22" xr:uid="{9260BEB1-7D5B-428F-86C8-D0E69F280258}"/>
+    <hyperlink ref="P35" r:id="rId23" xr:uid="{E5F015E5-6D5A-46BB-A5EB-4041039B1901}"/>
+    <hyperlink ref="P36" r:id="rId24" xr:uid="{7ECCB36D-83D0-4BC3-B4E5-74CF9236A98D}"/>
+    <hyperlink ref="P37" r:id="rId25" xr:uid="{0ED99F13-7348-42DE-A627-C588F200EF97}"/>
+    <hyperlink ref="P38" r:id="rId26" xr:uid="{B1C2AFEF-F0D7-40C1-B699-B3D78E1A91F5}"/>
+    <hyperlink ref="P39" r:id="rId27" xr:uid="{29793FF2-CDC0-49FD-B51B-DC2E97C2354B}"/>
+    <hyperlink ref="P40" r:id="rId28" xr:uid="{9771EA71-8527-4601-B367-F474477313B6}"/>
+    <hyperlink ref="P41" r:id="rId29" xr:uid="{401463F3-7830-422D-AB34-A3B8915CE829}"/>
+    <hyperlink ref="P42" r:id="rId30" xr:uid="{288DE761-B507-4E73-B566-828B23E22FA2}"/>
+    <hyperlink ref="P43" r:id="rId31" xr:uid="{FB4E89FA-A896-4418-8345-7B7C3D1C5963}"/>
+    <hyperlink ref="P44" r:id="rId32" xr:uid="{746DB1A9-44E7-42FE-9F22-7A6EEEC5B58B}"/>
+    <hyperlink ref="P45" r:id="rId33" xr:uid="{D0B7063D-CB1B-4C95-B881-AD0D437FAF4B}"/>
+    <hyperlink ref="P46" r:id="rId34" xr:uid="{8ABEC8BC-1474-4291-9B1D-37D046C57A00}"/>
+    <hyperlink ref="P47" r:id="rId35" xr:uid="{27342942-1E83-4EEC-927E-83190BA12410}"/>
+    <hyperlink ref="P48" r:id="rId36" xr:uid="{F1F98BD8-1700-4DD1-BF15-5D206026A9BF}"/>
+    <hyperlink ref="P49" r:id="rId37" xr:uid="{B6DCB841-AF94-4309-8C87-BACB6CB4CDB6}"/>
+    <hyperlink ref="P50" r:id="rId38" xr:uid="{656A5928-0FE6-4DC5-B5A6-A9681B794D5E}"/>
+    <hyperlink ref="P51" r:id="rId39" xr:uid="{2E96D2A4-5259-4825-8D70-9F50CEA9CF17}"/>
+    <hyperlink ref="P52" r:id="rId40" xr:uid="{82DB4EF7-9168-4097-ACF4-8889C28E70BF}"/>
+    <hyperlink ref="P53" r:id="rId41" xr:uid="{651CDE70-F599-47CE-88CC-DB8EEB095CD5}"/>
+    <hyperlink ref="P54" r:id="rId42" xr:uid="{CE93C5B3-0499-47F2-8117-BAC4501130C7}"/>
+    <hyperlink ref="P55" r:id="rId43" xr:uid="{AD10775F-3928-4A84-804A-9D7EFBC798AE}"/>
+    <hyperlink ref="P56" r:id="rId44" xr:uid="{B480C2A7-4B4B-4054-8939-D7EEF243D1ED}"/>
+    <hyperlink ref="P57" r:id="rId45" xr:uid="{5C6A6274-D867-4B80-980F-B000A2E50AAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
--- a/data/datasets/fossil/fossil_ds.xlsx
+++ b/data/datasets/fossil/fossil_ds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Me\GitHub\KYC\data\datasets\fossil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454192D1-4850-4087-86F1-BB8A2CE36817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CC960-A910-4AE9-A46D-19E2EE97C9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9FFA3018-9BE3-4B15-9A2D-65E1C440FC8B}"/>
   </bookViews>
@@ -1792,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0056F4C-6301-4B1E-98A1-143629FF2C15}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,19 +1803,19 @@
     <col min="4" max="4" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1838,43 +1838,43 @@
         <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1897,28 +1897,28 @@
         <v>167</v>
       </c>
       <c r="G2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="4">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>168</v>
-      </c>
-      <c r="H2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="4">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>149</v>
-      </c>
-      <c r="P2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R2" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1937,38 +1937,38 @@
       <c r="E3">
         <v>70</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="4">
         <v>30</v>
       </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
       <c r="J3" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
         <v>172</v>
       </c>
-      <c r="L3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M3">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
         <v>173</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1990,20 +1990,20 @@
       <c r="F4" t="s">
         <v>175</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N4" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
         <v>174</v>
-      </c>
-      <c r="P4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>125</v>
-      </c>
-      <c r="R4" t="s">
-        <v>151</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -2026,28 +2026,28 @@
         <v>177</v>
       </c>
       <c r="G5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s">
         <v>176</v>
       </c>
-      <c r="H5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" t="s">
-        <v>152</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="R5" t="s">
         <v>179</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" t="s">
-        <v>151</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -2070,28 +2070,28 @@
         <v>180</v>
       </c>
       <c r="G6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" t="s">
+        <v>114</v>
+      </c>
+      <c r="O6" t="s">
+        <v>151</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
         <v>181</v>
       </c>
-      <c r="H6" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="4">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="R6" t="s">
         <v>183</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>114</v>
-      </c>
-      <c r="R6" t="s">
-        <v>151</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2114,25 +2114,25 @@
         <v>184</v>
       </c>
       <c r="G7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>153</v>
+      </c>
+      <c r="N7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="s">
         <v>186</v>
       </c>
-      <c r="H7" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="4">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="R7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>114</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2151,32 +2151,32 @@
       <c r="E8">
         <v>60</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G8" t="s">
         <v>188</v>
       </c>
+      <c r="I8" t="s">
+        <v>115</v>
+      </c>
       <c r="J8" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R8" t="s">
         <v>189</v>
-      </c>
-      <c r="L8" t="s">
-        <v>190</v>
-      </c>
-      <c r="M8">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" t="s">
-        <v>126</v>
-      </c>
-      <c r="R8" t="s">
-        <v>151</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2195,35 +2195,35 @@
       <c r="E9">
         <v>90</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>191</v>
       </c>
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
       <c r="J9" t="s">
-        <v>128</v>
-      </c>
-      <c r="K9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
         <v>192</v>
       </c>
-      <c r="L9" t="s">
-        <v>182</v>
-      </c>
-      <c r="M9">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>127</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="S9" t="s">
         <v>183</v>
-      </c>
-      <c r="P9" t="s">
-        <v>126</v>
-      </c>
-      <c r="R9" t="s">
-        <v>150</v>
-      </c>
-      <c r="S9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2242,35 +2242,35 @@
       <c r="E10">
         <v>60</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G10" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="4">
+      <c r="H10" s="4">
         <v>30</v>
       </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>194</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>194</v>
-      </c>
-      <c r="M10">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s">
         <v>117</v>
       </c>
+      <c r="M10" t="s">
+        <v>138</v>
+      </c>
       <c r="O10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S10" t="s">
         <v>195</v>
-      </c>
-      <c r="P10" t="s">
-        <v>138</v>
-      </c>
-      <c r="R10" t="s">
-        <v>150</v>
-      </c>
-      <c r="S10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2289,38 +2289,38 @@
       <c r="E11">
         <v>80</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
       <c r="J11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" t="s">
+        <v>199</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" t="s">
         <v>197</v>
       </c>
-      <c r="L11" t="s">
-        <v>199</v>
-      </c>
-      <c r="M11">
-        <v>10</v>
-      </c>
-      <c r="N11" t="s">
-        <v>123</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="S11" t="s">
         <v>198</v>
-      </c>
-      <c r="P11" t="s">
-        <v>131</v>
-      </c>
-      <c r="R11" t="s">
-        <v>150</v>
-      </c>
-      <c r="S11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2339,38 +2339,38 @@
       <c r="E12">
         <v>80</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="4">
+      <c r="H12" s="4">
         <v>20</v>
       </c>
+      <c r="I12" t="s">
+        <v>154</v>
+      </c>
       <c r="J12" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" t="s">
         <v>200</v>
       </c>
-      <c r="L12" t="s">
-        <v>202</v>
-      </c>
-      <c r="M12">
-        <v>100</v>
-      </c>
-      <c r="N12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" t="s">
+      <c r="S12" t="s">
         <v>201</v>
-      </c>
-      <c r="P12" t="s">
-        <v>112</v>
-      </c>
-      <c r="R12" t="s">
-        <v>150</v>
-      </c>
-      <c r="S12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2389,35 +2389,35 @@
       <c r="E13">
         <v>70</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G13" t="s">
         <v>203</v>
       </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
       <c r="J13" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" t="s">
         <v>204</v>
       </c>
-      <c r="L13" t="s">
-        <v>205</v>
-      </c>
-      <c r="M13">
-        <v>80</v>
-      </c>
-      <c r="N13" t="s">
-        <v>136</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="S13" t="s">
         <v>206</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>114</v>
-      </c>
-      <c r="R13" t="s">
-        <v>150</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2440,28 +2440,28 @@
         <v>207</v>
       </c>
       <c r="G14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="4">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="s">
         <v>208</v>
       </c>
-      <c r="H14" t="s">
-        <v>209</v>
-      </c>
-      <c r="I14" s="4">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>139</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="R14" t="s">
         <v>210</v>
-      </c>
-      <c r="P14" t="s">
-        <v>126</v>
-      </c>
-      <c r="R14" t="s">
-        <v>150</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2480,26 +2480,26 @@
       <c r="E15">
         <v>90</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G15" t="s">
         <v>211</v>
       </c>
-      <c r="I15" s="4">
+      <c r="H15" s="4">
         <v>30</v>
       </c>
-      <c r="J15" t="s">
+      <c r="I15" t="s">
         <v>132</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>151</v>
+      </c>
+      <c r="P15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R15" t="s">
         <v>212</v>
-      </c>
-      <c r="P15" t="s">
-        <v>118</v>
-      </c>
-      <c r="R15" t="s">
-        <v>151</v>
-      </c>
-      <c r="S15" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2518,26 +2518,26 @@
       <c r="E16">
         <v>80</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="4">
+      <c r="H16" s="4">
         <v>40</v>
       </c>
-      <c r="J16" t="s">
+      <c r="I16" t="s">
         <v>132</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" t="s">
         <v>214</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>114</v>
-      </c>
-      <c r="R16" t="s">
-        <v>150</v>
-      </c>
-      <c r="S16" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2560,28 +2560,28 @@
         <v>167</v>
       </c>
       <c r="G17" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="4">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="s">
         <v>168</v>
-      </c>
-      <c r="H17" t="s">
-        <v>169</v>
-      </c>
-      <c r="I17" s="4">
-        <v>30</v>
-      </c>
-      <c r="J17" t="s">
-        <v>149</v>
-      </c>
-      <c r="P17" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>113</v>
-      </c>
-      <c r="R17" t="s">
-        <v>150</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2600,38 +2600,38 @@
       <c r="E18">
         <v>70</v>
       </c>
-      <c r="H18" t="s">
+      <c r="G18" t="s">
         <v>170</v>
       </c>
-      <c r="I18" s="4">
+      <c r="H18" s="4">
         <v>30</v>
       </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
       <c r="J18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18" t="s">
+        <v>121</v>
+      </c>
+      <c r="N18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O18" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s">
         <v>172</v>
       </c>
-      <c r="L18" t="s">
-        <v>171</v>
-      </c>
-      <c r="M18">
-        <v>50</v>
-      </c>
-      <c r="N18" t="s">
-        <v>121</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="S18" t="s">
         <v>173</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" t="s">
-        <v>150</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2653,20 +2653,20 @@
       <c r="F19" t="s">
         <v>175</v>
       </c>
-      <c r="G19" t="s">
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+      <c r="N19" t="s">
+        <v>125</v>
+      </c>
+      <c r="O19" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
         <v>174</v>
-      </c>
-      <c r="P19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>125</v>
-      </c>
-      <c r="R19" t="s">
-        <v>151</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2689,28 +2689,28 @@
         <v>177</v>
       </c>
       <c r="G20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>152</v>
+      </c>
+      <c r="N20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O20" t="s">
+        <v>151</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s">
         <v>176</v>
       </c>
-      <c r="H20" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="R20" t="s">
         <v>179</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>114</v>
-      </c>
-      <c r="R20" t="s">
-        <v>151</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2733,28 +2733,28 @@
         <v>180</v>
       </c>
       <c r="G21" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="4">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21" t="s">
+        <v>114</v>
+      </c>
+      <c r="O21" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s">
         <v>181</v>
       </c>
-      <c r="H21" t="s">
-        <v>182</v>
-      </c>
-      <c r="I21" s="4">
-        <v>30</v>
-      </c>
-      <c r="J21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="R21" t="s">
         <v>183</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>114</v>
-      </c>
-      <c r="R21" t="s">
-        <v>151</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2777,25 +2777,25 @@
         <v>184</v>
       </c>
       <c r="G22" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>153</v>
+      </c>
+      <c r="N22" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" t="s">
         <v>186</v>
       </c>
-      <c r="H22" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22" s="4">
-        <v>10</v>
-      </c>
-      <c r="J22" t="s">
-        <v>153</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="R22" t="s">
         <v>187</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>114</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2814,32 +2814,32 @@
       <c r="E23">
         <v>60</v>
       </c>
-      <c r="H23" t="s">
+      <c r="G23" t="s">
         <v>188</v>
       </c>
+      <c r="I23" t="s">
+        <v>115</v>
+      </c>
       <c r="J23" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23">
+        <v>50</v>
+      </c>
+      <c r="L23" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="O23" t="s">
+        <v>151</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" t="s">
         <v>189</v>
-      </c>
-      <c r="L23" t="s">
-        <v>190</v>
-      </c>
-      <c r="M23">
-        <v>50</v>
-      </c>
-      <c r="N23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" t="s">
-        <v>126</v>
-      </c>
-      <c r="R23" t="s">
-        <v>151</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -2858,35 +2858,35 @@
       <c r="E24">
         <v>90</v>
       </c>
-      <c r="H24" t="s">
+      <c r="G24" t="s">
         <v>191</v>
       </c>
+      <c r="I24" t="s">
+        <v>128</v>
+      </c>
       <c r="J24" t="s">
-        <v>128</v>
-      </c>
-      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" t="s">
+        <v>126</v>
+      </c>
+      <c r="O24" t="s">
+        <v>150</v>
+      </c>
+      <c r="P24" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" t="s">
         <v>192</v>
       </c>
-      <c r="L24" t="s">
-        <v>182</v>
-      </c>
-      <c r="M24">
-        <v>30</v>
-      </c>
-      <c r="N24" t="s">
-        <v>127</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="S24" t="s">
         <v>183</v>
-      </c>
-      <c r="P24" t="s">
-        <v>126</v>
-      </c>
-      <c r="R24" t="s">
-        <v>150</v>
-      </c>
-      <c r="S24" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2905,35 +2905,35 @@
       <c r="E25">
         <v>60</v>
       </c>
-      <c r="H25" t="s">
+      <c r="G25" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="4">
+      <c r="H25" s="4">
         <v>30</v>
       </c>
+      <c r="I25" t="s">
+        <v>115</v>
+      </c>
       <c r="J25" t="s">
-        <v>115</v>
+        <v>194</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25">
-        <v>40</v>
-      </c>
-      <c r="N25" t="s">
         <v>117</v>
       </c>
+      <c r="M25" t="s">
+        <v>138</v>
+      </c>
       <c r="O25" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" t="s">
         <v>195</v>
-      </c>
-      <c r="P25" t="s">
-        <v>138</v>
-      </c>
-      <c r="R25" t="s">
-        <v>150</v>
-      </c>
-      <c r="S25" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -2952,38 +2952,38 @@
       <c r="E26">
         <v>80</v>
       </c>
-      <c r="H26" t="s">
+      <c r="G26" t="s">
         <v>196</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="I26" t="s">
+        <v>122</v>
+      </c>
       <c r="J26" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26" t="s">
+        <v>123</v>
+      </c>
+      <c r="M26" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" t="s">
         <v>197</v>
       </c>
-      <c r="L26" t="s">
-        <v>199</v>
-      </c>
-      <c r="M26">
-        <v>10</v>
-      </c>
-      <c r="N26" t="s">
-        <v>123</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="S26" t="s">
         <v>198</v>
-      </c>
-      <c r="P26" t="s">
-        <v>131</v>
-      </c>
-      <c r="R26" t="s">
-        <v>150</v>
-      </c>
-      <c r="S26" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -3002,38 +3002,38 @@
       <c r="E27">
         <v>80</v>
       </c>
-      <c r="H27" t="s">
+      <c r="G27" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="4">
+      <c r="H27" s="4">
         <v>20</v>
       </c>
+      <c r="I27" t="s">
+        <v>154</v>
+      </c>
       <c r="J27" t="s">
-        <v>154</v>
-      </c>
-      <c r="K27" t="s">
+        <v>202</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" t="s">
+        <v>112</v>
+      </c>
+      <c r="O27" t="s">
+        <v>150</v>
+      </c>
+      <c r="P27" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" t="s">
         <v>200</v>
       </c>
-      <c r="L27" t="s">
-        <v>202</v>
-      </c>
-      <c r="M27">
-        <v>100</v>
-      </c>
-      <c r="N27" t="s">
-        <v>132</v>
-      </c>
-      <c r="O27" t="s">
+      <c r="S27" t="s">
         <v>201</v>
-      </c>
-      <c r="P27" t="s">
-        <v>112</v>
-      </c>
-      <c r="R27" t="s">
-        <v>150</v>
-      </c>
-      <c r="S27" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -3052,35 +3052,35 @@
       <c r="E28">
         <v>70</v>
       </c>
-      <c r="H28" t="s">
+      <c r="G28" t="s">
         <v>203</v>
       </c>
+      <c r="I28" t="s">
+        <v>135</v>
+      </c>
       <c r="J28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28">
+        <v>80</v>
+      </c>
+      <c r="L28" t="s">
+        <v>136</v>
+      </c>
+      <c r="N28" t="s">
+        <v>114</v>
+      </c>
+      <c r="O28" t="s">
+        <v>150</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" t="s">
         <v>204</v>
       </c>
-      <c r="L28" t="s">
-        <v>205</v>
-      </c>
-      <c r="M28">
-        <v>80</v>
-      </c>
-      <c r="N28" t="s">
-        <v>136</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="S28" t="s">
         <v>206</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>114</v>
-      </c>
-      <c r="R28" t="s">
-        <v>150</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -3103,28 +3103,28 @@
         <v>207</v>
       </c>
       <c r="G29" t="s">
+        <v>209</v>
+      </c>
+      <c r="H29" s="4">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" t="s">
+        <v>126</v>
+      </c>
+      <c r="O29" t="s">
+        <v>150</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" t="s">
         <v>208</v>
       </c>
-      <c r="H29" t="s">
-        <v>209</v>
-      </c>
-      <c r="I29" s="4">
-        <v>30</v>
-      </c>
-      <c r="J29" t="s">
-        <v>139</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="R29" t="s">
         <v>210</v>
-      </c>
-      <c r="P29" t="s">
-        <v>126</v>
-      </c>
-      <c r="R29" t="s">
-        <v>150</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -3143,26 +3143,26 @@
       <c r="E30">
         <v>90</v>
       </c>
-      <c r="H30" t="s">
+      <c r="G30" t="s">
         <v>211</v>
       </c>
-      <c r="I30" s="4">
+      <c r="H30" s="4">
         <v>30</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I30" t="s">
         <v>132</v>
       </c>
-      <c r="K30" t="s">
+      <c r="M30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" t="s">
+        <v>151</v>
+      </c>
+      <c r="P30" t="s">
+        <v>15</v>
+      </c>
+      <c r="R30" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" t="s">
-        <v>118</v>
-      </c>
-      <c r="R30" t="s">
-        <v>151</v>
-      </c>
-      <c r="S30" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -3181,26 +3181,26 @@
       <c r="E31">
         <v>80</v>
       </c>
-      <c r="H31" t="s">
+      <c r="G31" t="s">
         <v>213</v>
       </c>
-      <c r="I31" s="4">
+      <c r="H31" s="4">
         <v>40</v>
       </c>
-      <c r="J31" t="s">
+      <c r="I31" t="s">
         <v>132</v>
       </c>
-      <c r="K31" t="s">
+      <c r="N31" t="s">
+        <v>114</v>
+      </c>
+      <c r="O31" t="s">
+        <v>150</v>
+      </c>
+      <c r="P31" t="s">
+        <v>16</v>
+      </c>
+      <c r="R31" t="s">
         <v>214</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>114</v>
-      </c>
-      <c r="R31" t="s">
-        <v>150</v>
-      </c>
-      <c r="S31" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -3219,38 +3219,38 @@
       <c r="E32">
         <v>60</v>
       </c>
-      <c r="H32" t="s">
+      <c r="G32" t="s">
         <v>215</v>
       </c>
-      <c r="I32" s="4">
+      <c r="H32" s="4">
         <v>10</v>
       </c>
+      <c r="I32" t="s">
+        <v>140</v>
+      </c>
       <c r="J32" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32">
+        <v>20</v>
+      </c>
+      <c r="L32" t="s">
+        <v>155</v>
+      </c>
+      <c r="M32" t="s">
+        <v>126</v>
+      </c>
+      <c r="O32" t="s">
+        <v>150</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R32" t="s">
         <v>216</v>
       </c>
-      <c r="L32" t="s">
-        <v>217</v>
-      </c>
-      <c r="M32">
-        <v>20</v>
-      </c>
-      <c r="N32" t="s">
-        <v>155</v>
-      </c>
-      <c r="O32" t="s">
+      <c r="S32" t="s">
         <v>218</v>
-      </c>
-      <c r="P32" t="s">
-        <v>126</v>
-      </c>
-      <c r="R32" t="s">
-        <v>150</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3269,38 +3269,38 @@
       <c r="E33">
         <v>50</v>
       </c>
-      <c r="H33" t="s">
+      <c r="G33" t="s">
         <v>219</v>
       </c>
-      <c r="I33" s="4">
+      <c r="H33" s="4">
         <v>30</v>
       </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
       <c r="J33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
         <v>123</v>
       </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
+        <v>131</v>
+      </c>
+      <c r="O33" t="s">
+        <v>150</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R33" t="s">
         <v>221</v>
       </c>
-      <c r="L33" t="s">
-        <v>220</v>
-      </c>
-      <c r="M33" t="s">
-        <v>18</v>
-      </c>
-      <c r="N33" t="s">
-        <v>123</v>
-      </c>
-      <c r="O33" t="s">
+      <c r="S33" t="s">
         <v>222</v>
-      </c>
-      <c r="P33" t="s">
-        <v>131</v>
-      </c>
-      <c r="R33" t="s">
-        <v>150</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3319,32 +3319,32 @@
       <c r="E34">
         <v>50</v>
       </c>
-      <c r="H34" t="s">
+      <c r="G34" t="s">
         <v>223</v>
       </c>
-      <c r="I34" s="4">
+      <c r="H34" s="4">
         <v>10</v>
       </c>
+      <c r="I34" t="s">
+        <v>129</v>
+      </c>
       <c r="J34" t="s">
-        <v>129</v>
-      </c>
-      <c r="K34" t="s">
+        <v>224</v>
+      </c>
+      <c r="L34" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" t="s">
         <v>172</v>
       </c>
-      <c r="L34" t="s">
-        <v>224</v>
-      </c>
-      <c r="N34" t="s">
-        <v>130</v>
-      </c>
-      <c r="O34" t="s">
+      <c r="S34" t="s">
         <v>225</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>114</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3363,35 +3363,35 @@
       <c r="E35">
         <v>60</v>
       </c>
-      <c r="H35" t="s">
+      <c r="G35" t="s">
         <v>169</v>
       </c>
-      <c r="I35" s="4">
+      <c r="H35" s="4">
         <v>30</v>
       </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
       <c r="J35" t="s">
-        <v>149</v>
+        <v>226</v>
+      </c>
+      <c r="K35">
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>226</v>
-      </c>
-      <c r="M35">
-        <v>20</v>
+        <v>155</v>
+      </c>
+      <c r="M35" t="s">
+        <v>126</v>
       </c>
       <c r="N35" t="s">
-        <v>155</v>
-      </c>
-      <c r="O35" t="s">
+        <v>114</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S35" t="s">
         <v>227</v>
-      </c>
-      <c r="P35" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>114</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3410,38 +3410,38 @@
       <c r="E36">
         <v>70</v>
       </c>
-      <c r="H36" t="s">
+      <c r="G36" t="s">
         <v>228</v>
       </c>
-      <c r="I36" s="4">
+      <c r="H36" s="4">
         <v>10</v>
       </c>
+      <c r="I36" t="s">
+        <v>129</v>
+      </c>
       <c r="J36" t="s">
-        <v>129</v>
-      </c>
-      <c r="K36" t="s">
+        <v>230</v>
+      </c>
+      <c r="K36">
+        <v>20</v>
+      </c>
+      <c r="L36" t="s">
+        <v>156</v>
+      </c>
+      <c r="M36" t="s">
+        <v>131</v>
+      </c>
+      <c r="O36" t="s">
+        <v>151</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" t="s">
         <v>172</v>
       </c>
-      <c r="L36" t="s">
-        <v>230</v>
-      </c>
-      <c r="M36">
-        <v>20</v>
-      </c>
-      <c r="N36" t="s">
-        <v>156</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="S36" t="s">
         <v>229</v>
-      </c>
-      <c r="P36" t="s">
-        <v>131</v>
-      </c>
-      <c r="R36" t="s">
-        <v>151</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3460,35 +3460,35 @@
       <c r="E37">
         <v>80</v>
       </c>
-      <c r="H37" t="s">
+      <c r="G37" t="s">
         <v>231</v>
       </c>
-      <c r="I37" s="4">
+      <c r="H37" s="4">
         <v>60</v>
       </c>
+      <c r="I37" t="s">
+        <v>157</v>
+      </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>202</v>
+      </c>
+      <c r="K37">
+        <v>100</v>
       </c>
       <c r="L37" t="s">
-        <v>202</v>
-      </c>
-      <c r="M37">
-        <v>100</v>
-      </c>
-      <c r="N37" t="s">
         <v>117</v>
       </c>
+      <c r="M37" t="s">
+        <v>138</v>
+      </c>
       <c r="O37" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37" t="s">
         <v>232</v>
-      </c>
-      <c r="P37" t="s">
-        <v>138</v>
-      </c>
-      <c r="R37" t="s">
-        <v>152</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3507,32 +3507,32 @@
       <c r="E38">
         <v>60</v>
       </c>
-      <c r="H38" t="s">
+      <c r="G38" t="s">
         <v>233</v>
       </c>
+      <c r="I38" t="s">
+        <v>115</v>
+      </c>
       <c r="J38" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38" t="s">
+        <v>234</v>
+      </c>
+      <c r="K38">
+        <v>40</v>
+      </c>
+      <c r="L38" t="s">
+        <v>158</v>
+      </c>
+      <c r="M38" t="s">
+        <v>138</v>
+      </c>
+      <c r="O38" t="s">
+        <v>150</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R38" t="s">
         <v>235</v>
-      </c>
-      <c r="L38" t="s">
-        <v>234</v>
-      </c>
-      <c r="M38">
-        <v>40</v>
-      </c>
-      <c r="N38" t="s">
-        <v>158</v>
-      </c>
-      <c r="P38" t="s">
-        <v>138</v>
-      </c>
-      <c r="R38" t="s">
-        <v>150</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -3551,35 +3551,35 @@
       <c r="E39">
         <v>60</v>
       </c>
-      <c r="H39" t="s">
+      <c r="G39" t="s">
         <v>236</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="I39" t="s">
+        <v>122</v>
+      </c>
       <c r="J39" t="s">
-        <v>122</v>
-      </c>
-      <c r="K39" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39">
+        <v>40</v>
+      </c>
+      <c r="L39" t="s">
+        <v>156</v>
+      </c>
+      <c r="M39" t="s">
+        <v>131</v>
+      </c>
+      <c r="O39" t="s">
+        <v>149</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" t="s">
         <v>237</v>
-      </c>
-      <c r="L39" t="s">
-        <v>238</v>
-      </c>
-      <c r="M39">
-        <v>40</v>
-      </c>
-      <c r="N39" t="s">
-        <v>156</v>
-      </c>
-      <c r="P39" t="s">
-        <v>131</v>
-      </c>
-      <c r="R39" t="s">
-        <v>149</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -3598,38 +3598,38 @@
       <c r="E40">
         <v>70</v>
       </c>
-      <c r="H40" t="s">
+      <c r="G40" t="s">
         <v>239</v>
       </c>
-      <c r="I40" s="4">
+      <c r="H40" s="4">
         <v>10</v>
       </c>
+      <c r="I40" t="s">
+        <v>135</v>
+      </c>
       <c r="J40" t="s">
-        <v>135</v>
-      </c>
-      <c r="K40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40">
+        <v>20</v>
+      </c>
+      <c r="L40" t="s">
+        <v>137</v>
+      </c>
+      <c r="M40" t="s">
+        <v>119</v>
+      </c>
+      <c r="O40" t="s">
+        <v>151</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R40" t="s">
         <v>240</v>
       </c>
-      <c r="L40" t="s">
-        <v>96</v>
-      </c>
-      <c r="M40">
-        <v>20</v>
-      </c>
-      <c r="N40" t="s">
-        <v>137</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="S40" t="s">
         <v>210</v>
-      </c>
-      <c r="P40" t="s">
-        <v>119</v>
-      </c>
-      <c r="R40" t="s">
-        <v>151</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -3648,38 +3648,38 @@
       <c r="E41">
         <v>70</v>
       </c>
-      <c r="H41" t="s">
+      <c r="G41" t="s">
         <v>196</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
       <c r="J41" t="s">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="K41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" t="s">
+        <v>138</v>
+      </c>
+      <c r="O41" t="s">
+        <v>151</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" t="s">
         <v>241</v>
       </c>
-      <c r="L41" t="s">
-        <v>220</v>
-      </c>
-      <c r="M41" t="s">
-        <v>18</v>
-      </c>
-      <c r="N41" t="s">
-        <v>123</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="S41" t="s">
         <v>222</v>
-      </c>
-      <c r="P41" t="s">
-        <v>138</v>
-      </c>
-      <c r="R41" t="s">
-        <v>151</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -3698,38 +3698,38 @@
       <c r="E42">
         <v>70</v>
       </c>
-      <c r="H42" t="s">
+      <c r="G42" t="s">
         <v>242</v>
       </c>
-      <c r="I42" s="4">
+      <c r="H42" s="4">
         <v>20</v>
       </c>
+      <c r="I42" t="s">
+        <v>150</v>
+      </c>
       <c r="J42" t="s">
-        <v>150</v>
+        <v>243</v>
+      </c>
+      <c r="K42" t="s">
+        <v>30</v>
       </c>
       <c r="L42" t="s">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="M42" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="N42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S42" t="s">
         <v>244</v>
-      </c>
-      <c r="P42" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>133</v>
-      </c>
-      <c r="R42" t="s">
-        <v>151</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -3748,38 +3748,38 @@
       <c r="E43">
         <v>60</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G43" t="s">
         <v>196</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="H43" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="I43" t="s">
+        <v>159</v>
+      </c>
       <c r="J43" t="s">
-        <v>159</v>
-      </c>
-      <c r="K43" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+      <c r="L43" t="s">
+        <v>160</v>
+      </c>
+      <c r="M43" t="s">
+        <v>131</v>
+      </c>
+      <c r="O43" t="s">
+        <v>151</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" t="s">
         <v>245</v>
       </c>
-      <c r="L43" t="s">
-        <v>247</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43" t="s">
-        <v>160</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="S43" t="s">
         <v>246</v>
-      </c>
-      <c r="P43" t="s">
-        <v>131</v>
-      </c>
-      <c r="R43" t="s">
-        <v>151</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -3802,28 +3802,28 @@
         <v>248</v>
       </c>
       <c r="G44" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="4">
+        <v>20</v>
+      </c>
+      <c r="I44" t="s">
+        <v>130</v>
+      </c>
+      <c r="M44" t="s">
+        <v>126</v>
+      </c>
+      <c r="O44" t="s">
+        <v>151</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" t="s">
         <v>249</v>
       </c>
-      <c r="H44" t="s">
-        <v>228</v>
-      </c>
-      <c r="I44" s="4">
-        <v>20</v>
-      </c>
-      <c r="J44" t="s">
-        <v>130</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="R44" t="s">
         <v>172</v>
-      </c>
-      <c r="P44" t="s">
-        <v>126</v>
-      </c>
-      <c r="R44" t="s">
-        <v>151</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -3842,32 +3842,32 @@
       <c r="E45">
         <v>60</v>
       </c>
-      <c r="H45" t="s">
+      <c r="G45" t="s">
         <v>250</v>
       </c>
+      <c r="I45" t="s">
+        <v>122</v>
+      </c>
       <c r="J45" t="s">
-        <v>122</v>
-      </c>
-      <c r="K45" t="s">
+        <v>251</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" t="s">
+        <v>131</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R45" t="s">
         <v>198</v>
       </c>
-      <c r="L45" t="s">
-        <v>251</v>
-      </c>
-      <c r="M45">
-        <v>10</v>
-      </c>
-      <c r="N45" t="s">
-        <v>123</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="S45" t="s">
         <v>218</v>
-      </c>
-      <c r="P45" t="s">
-        <v>131</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -3886,38 +3886,38 @@
       <c r="E46">
         <v>60</v>
       </c>
-      <c r="H46" t="s">
+      <c r="G46" t="s">
         <v>96</v>
       </c>
-      <c r="I46" s="4">
+      <c r="H46" s="4">
         <v>20</v>
       </c>
+      <c r="I46" t="s">
+        <v>141</v>
+      </c>
       <c r="J46" t="s">
-        <v>141</v>
-      </c>
-      <c r="K46" t="s">
+        <v>202</v>
+      </c>
+      <c r="K46">
+        <v>60</v>
+      </c>
+      <c r="L46" t="s">
+        <v>155</v>
+      </c>
+      <c r="M46" t="s">
+        <v>126</v>
+      </c>
+      <c r="O46" t="s">
+        <v>151</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" t="s">
         <v>210</v>
       </c>
-      <c r="L46" t="s">
-        <v>202</v>
-      </c>
-      <c r="M46">
-        <v>60</v>
-      </c>
-      <c r="N46" t="s">
-        <v>155</v>
-      </c>
-      <c r="O46" t="s">
+      <c r="S46" t="s">
         <v>252</v>
-      </c>
-      <c r="P46" t="s">
-        <v>126</v>
-      </c>
-      <c r="R46" t="s">
-        <v>151</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -3936,35 +3936,35 @@
       <c r="E47">
         <v>40</v>
       </c>
-      <c r="H47" t="s">
+      <c r="G47" t="s">
         <v>253</v>
       </c>
+      <c r="I47" t="s">
+        <v>140</v>
+      </c>
       <c r="J47" t="s">
-        <v>140</v>
-      </c>
-      <c r="K47" t="s">
+        <v>254</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>161</v>
+      </c>
+      <c r="M47" t="s">
+        <v>126</v>
+      </c>
+      <c r="O47" t="s">
+        <v>151</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" t="s">
         <v>210</v>
       </c>
-      <c r="L47" t="s">
-        <v>254</v>
-      </c>
-      <c r="M47">
-        <v>20</v>
-      </c>
-      <c r="N47" t="s">
-        <v>161</v>
-      </c>
-      <c r="O47" t="s">
+      <c r="S47" t="s">
         <v>172</v>
-      </c>
-      <c r="P47" t="s">
-        <v>126</v>
-      </c>
-      <c r="R47" t="s">
-        <v>151</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -3983,26 +3983,26 @@
       <c r="E48">
         <v>50</v>
       </c>
-      <c r="H48" t="s">
+      <c r="G48" t="s">
         <v>255</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J48" t="s">
+      <c r="I48" t="s">
         <v>162</v>
       </c>
-      <c r="K48" t="s">
+      <c r="M48" t="s">
+        <v>138</v>
+      </c>
+      <c r="O48" t="s">
+        <v>151</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" t="s">
         <v>256</v>
-      </c>
-      <c r="P48" t="s">
-        <v>138</v>
-      </c>
-      <c r="R48" t="s">
-        <v>151</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -4021,35 +4021,35 @@
       <c r="E49">
         <v>50</v>
       </c>
-      <c r="H49" t="s">
+      <c r="G49" t="s">
         <v>257</v>
       </c>
-      <c r="I49" s="4">
+      <c r="H49" s="4">
         <v>10</v>
       </c>
+      <c r="I49" t="s">
+        <v>151</v>
+      </c>
       <c r="J49" t="s">
+        <v>259</v>
+      </c>
+      <c r="L49" t="s">
+        <v>142</v>
+      </c>
+      <c r="M49" t="s">
+        <v>126</v>
+      </c>
+      <c r="O49" t="s">
         <v>151</v>
       </c>
-      <c r="K49" t="s">
+      <c r="P49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R49" t="s">
         <v>172</v>
       </c>
-      <c r="L49" t="s">
-        <v>259</v>
-      </c>
-      <c r="N49" t="s">
-        <v>142</v>
-      </c>
-      <c r="O49" t="s">
+      <c r="S49" t="s">
         <v>258</v>
-      </c>
-      <c r="P49" t="s">
-        <v>126</v>
-      </c>
-      <c r="R49" t="s">
-        <v>151</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -4068,23 +4068,23 @@
       <c r="E50">
         <v>40</v>
       </c>
-      <c r="H50" t="s">
+      <c r="G50" t="s">
         <v>239</v>
       </c>
-      <c r="I50" s="4">
+      <c r="H50" s="4">
         <v>10</v>
       </c>
-      <c r="J50" t="s">
+      <c r="I50" t="s">
         <v>122</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50" t="s">
         <v>240</v>
-      </c>
-      <c r="P50" t="s">
-        <v>131</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -4107,25 +4107,25 @@
         <v>261</v>
       </c>
       <c r="G51" t="s">
+        <v>260</v>
+      </c>
+      <c r="H51" s="4">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>151</v>
+      </c>
+      <c r="M51" t="s">
+        <v>138</v>
+      </c>
+      <c r="O51" t="s">
+        <v>151</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q51" t="s">
         <v>262</v>
-      </c>
-      <c r="H51" t="s">
-        <v>260</v>
-      </c>
-      <c r="I51" s="4">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P51" t="s">
-        <v>138</v>
-      </c>
-      <c r="R51" t="s">
-        <v>151</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -4144,32 +4144,32 @@
       <c r="E52">
         <v>50</v>
       </c>
-      <c r="H52" t="s">
+      <c r="G52" t="s">
         <v>263</v>
       </c>
+      <c r="I52" t="s">
+        <v>122</v>
+      </c>
       <c r="J52" t="s">
-        <v>122</v>
-      </c>
-      <c r="K52" t="s">
+        <v>265</v>
+      </c>
+      <c r="K52">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>159</v>
+      </c>
+      <c r="M52" t="s">
+        <v>131</v>
+      </c>
+      <c r="O52" t="s">
+        <v>150</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R52" t="s">
         <v>264</v>
-      </c>
-      <c r="L52" t="s">
-        <v>265</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52" t="s">
-        <v>159</v>
-      </c>
-      <c r="P52" t="s">
-        <v>131</v>
-      </c>
-      <c r="R52" t="s">
-        <v>150</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -4192,28 +4192,28 @@
         <v>266</v>
       </c>
       <c r="G53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>122</v>
+      </c>
+      <c r="M53" t="s">
+        <v>138</v>
+      </c>
+      <c r="O53" t="s">
+        <v>151</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q53" t="s">
         <v>267</v>
       </c>
-      <c r="H53" t="s">
-        <v>196</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" t="s">
-        <v>122</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="R53" t="s">
         <v>268</v>
-      </c>
-      <c r="P53" t="s">
-        <v>138</v>
-      </c>
-      <c r="R53" t="s">
-        <v>151</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -4232,35 +4232,35 @@
       <c r="E54">
         <v>50</v>
       </c>
-      <c r="H54" t="s">
+      <c r="G54" t="s">
         <v>269</v>
       </c>
+      <c r="I54" t="s">
+        <v>129</v>
+      </c>
       <c r="J54" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="K54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" t="s">
+        <v>122</v>
+      </c>
+      <c r="M54" t="s">
+        <v>131</v>
+      </c>
+      <c r="O54" t="s">
+        <v>151</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" t="s">
         <v>270</v>
       </c>
-      <c r="L54" t="s">
-        <v>243</v>
-      </c>
-      <c r="M54" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" t="s">
-        <v>122</v>
-      </c>
-      <c r="O54" t="s">
+      <c r="S54" t="s">
         <v>271</v>
-      </c>
-      <c r="P54" t="s">
-        <v>131</v>
-      </c>
-      <c r="R54" t="s">
-        <v>151</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -4279,32 +4279,32 @@
       <c r="E55">
         <v>30</v>
       </c>
-      <c r="H55" t="s">
+      <c r="G55" t="s">
         <v>250</v>
       </c>
+      <c r="I55" t="s">
+        <v>122</v>
+      </c>
       <c r="J55" t="s">
+        <v>272</v>
+      </c>
+      <c r="L55" t="s">
         <v>122</v>
       </c>
-      <c r="K55" t="s">
+      <c r="M55" t="s">
+        <v>131</v>
+      </c>
+      <c r="O55" t="s">
+        <v>151</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R55" t="s">
         <v>198</v>
       </c>
-      <c r="L55" t="s">
-        <v>272</v>
-      </c>
-      <c r="N55" t="s">
-        <v>122</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="S55" t="s">
         <v>273</v>
-      </c>
-      <c r="P55" t="s">
-        <v>131</v>
-      </c>
-      <c r="R55" t="s">
-        <v>151</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -4323,32 +4323,32 @@
       <c r="E56">
         <v>50</v>
       </c>
-      <c r="H56" t="s">
+      <c r="G56" t="s">
         <v>274</v>
       </c>
+      <c r="I56" t="s">
+        <v>151</v>
+      </c>
       <c r="J56" t="s">
+        <v>275</v>
+      </c>
+      <c r="L56" t="s">
+        <v>130</v>
+      </c>
+      <c r="M56" t="s">
+        <v>126</v>
+      </c>
+      <c r="O56" t="s">
         <v>151</v>
       </c>
-      <c r="K56" t="s">
+      <c r="P56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R56" t="s">
         <v>276</v>
       </c>
-      <c r="L56" t="s">
-        <v>275</v>
-      </c>
-      <c r="N56" t="s">
-        <v>130</v>
-      </c>
-      <c r="O56" t="s">
+      <c r="S56" t="s">
         <v>277</v>
-      </c>
-      <c r="P56" t="s">
-        <v>126</v>
-      </c>
-      <c r="R56" t="s">
-        <v>151</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -4371,22 +4371,22 @@
         <v>279</v>
       </c>
       <c r="G57" t="s">
+        <v>280</v>
+      </c>
+      <c r="H57" s="4">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>122</v>
+      </c>
+      <c r="M57" t="s">
+        <v>131</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q57" t="s">
         <v>278</v>
-      </c>
-      <c r="H57" t="s">
-        <v>280</v>
-      </c>
-      <c r="I57" s="4">
-        <v>10</v>
-      </c>
-      <c r="J57" t="s">
-        <v>122</v>
-      </c>
-      <c r="P57" t="s">
-        <v>131</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -4405,35 +4405,35 @@
       <c r="E58">
         <v>40</v>
       </c>
-      <c r="H58" t="s">
+      <c r="G58" t="s">
         <v>250</v>
       </c>
+      <c r="I58" t="s">
+        <v>150</v>
+      </c>
       <c r="J58" t="s">
-        <v>150</v>
-      </c>
-      <c r="K58" t="s">
+        <v>226</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58" t="s">
+        <v>161</v>
+      </c>
+      <c r="M58" t="s">
+        <v>126</v>
+      </c>
+      <c r="N58" t="s">
+        <v>114</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R58" t="s">
         <v>198</v>
       </c>
-      <c r="L58" t="s">
-        <v>226</v>
-      </c>
-      <c r="M58">
-        <v>10</v>
-      </c>
-      <c r="N58" t="s">
-        <v>161</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="S58" t="s">
         <v>281</v>
-      </c>
-      <c r="P58" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>114</v>
-      </c>
-      <c r="S58" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -4464,51 +4464,51 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{1DF99250-FCC4-4CDE-9E39-92389F452132}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{18BCE232-46A2-4D57-861F-FCC85115E656}"/>
-    <hyperlink ref="S8" r:id="rId3" xr:uid="{D8FC05AA-5ABB-4F52-831B-29C9CDE60E69}"/>
-    <hyperlink ref="S4" r:id="rId4" xr:uid="{C699880F-6AB0-449F-9C30-C70D6C1AC872}"/>
-    <hyperlink ref="S5" r:id="rId5" xr:uid="{7F218567-04C0-429D-A28E-5E1ED2EB8BF7}"/>
-    <hyperlink ref="S6" r:id="rId6" xr:uid="{19F6BC8A-D2AE-466E-A240-9128C811BBBD}"/>
-    <hyperlink ref="S7" r:id="rId7" xr:uid="{1362885F-95A9-4DFA-9C51-E3AE2DE039A9}"/>
-    <hyperlink ref="S13" r:id="rId8" xr:uid="{421BB25F-4B0A-4936-9409-00B9AA63C144}"/>
-    <hyperlink ref="S14" r:id="rId9" xr:uid="{85EDAE6C-47C8-455B-925F-969216B62B47}"/>
-    <hyperlink ref="S58" r:id="rId10" xr:uid="{36A28264-F4E5-47A5-8096-5746838BDC02}"/>
-    <hyperlink ref="S32" r:id="rId11" xr:uid="{7FF514C2-35C0-44B2-82A1-908DCA08EDE1}"/>
-    <hyperlink ref="S33" r:id="rId12" xr:uid="{C295A068-44A2-4AAA-9095-E590EB7F1855}"/>
-    <hyperlink ref="S34" r:id="rId13" xr:uid="{9260BEB1-7D5B-428F-86C8-D0E69F280258}"/>
-    <hyperlink ref="S35" r:id="rId14" xr:uid="{E5F015E5-6D5A-46BB-A5EB-4041039B1901}"/>
-    <hyperlink ref="S36" r:id="rId15" xr:uid="{7ECCB36D-83D0-4BC3-B4E5-74CF9236A98D}"/>
-    <hyperlink ref="S37" r:id="rId16" xr:uid="{0ED99F13-7348-42DE-A627-C588F200EF97}"/>
-    <hyperlink ref="S38" r:id="rId17" xr:uid="{B1C2AFEF-F0D7-40C1-B699-B3D78E1A91F5}"/>
-    <hyperlink ref="S39" r:id="rId18" xr:uid="{29793FF2-CDC0-49FD-B51B-DC2E97C2354B}"/>
-    <hyperlink ref="S40" r:id="rId19" xr:uid="{9771EA71-8527-4601-B367-F474477313B6}"/>
-    <hyperlink ref="S41" r:id="rId20" xr:uid="{401463F3-7830-422D-AB34-A3B8915CE829}"/>
-    <hyperlink ref="S42" r:id="rId21" xr:uid="{288DE761-B507-4E73-B566-828B23E22FA2}"/>
-    <hyperlink ref="S43" r:id="rId22" xr:uid="{FB4E89FA-A896-4418-8345-7B7C3D1C5963}"/>
-    <hyperlink ref="S44" r:id="rId23" xr:uid="{746DB1A9-44E7-42FE-9F22-7A6EEEC5B58B}"/>
-    <hyperlink ref="S45" r:id="rId24" xr:uid="{D0B7063D-CB1B-4C95-B881-AD0D437FAF4B}"/>
-    <hyperlink ref="S46" r:id="rId25" xr:uid="{8ABEC8BC-1474-4291-9B1D-37D046C57A00}"/>
-    <hyperlink ref="S47" r:id="rId26" xr:uid="{27342942-1E83-4EEC-927E-83190BA12410}"/>
-    <hyperlink ref="S48" r:id="rId27" xr:uid="{F1F98BD8-1700-4DD1-BF15-5D206026A9BF}"/>
-    <hyperlink ref="S49" r:id="rId28" xr:uid="{B6DCB841-AF94-4309-8C87-BACB6CB4CDB6}"/>
-    <hyperlink ref="S50" r:id="rId29" xr:uid="{656A5928-0FE6-4DC5-B5A6-A9681B794D5E}"/>
-    <hyperlink ref="S51" r:id="rId30" xr:uid="{2E96D2A4-5259-4825-8D70-9F50CEA9CF17}"/>
-    <hyperlink ref="S52" r:id="rId31" xr:uid="{82DB4EF7-9168-4097-ACF4-8889C28E70BF}"/>
-    <hyperlink ref="S53" r:id="rId32" xr:uid="{651CDE70-F599-47CE-88CC-DB8EEB095CD5}"/>
-    <hyperlink ref="S54" r:id="rId33" xr:uid="{CE93C5B3-0499-47F2-8117-BAC4501130C7}"/>
-    <hyperlink ref="S55" r:id="rId34" xr:uid="{AD10775F-3928-4A84-804A-9D7EFBC798AE}"/>
-    <hyperlink ref="S56" r:id="rId35" xr:uid="{B480C2A7-4B4B-4054-8939-D7EEF243D1ED}"/>
-    <hyperlink ref="S57" r:id="rId36" xr:uid="{5C6A6274-D867-4B80-980F-B000A2E50AAB}"/>
-    <hyperlink ref="S17" r:id="rId37" xr:uid="{E4A0DD3B-C3C7-4CA6-8F43-199FE4C85D5B}"/>
-    <hyperlink ref="S18" r:id="rId38" xr:uid="{61A40BC6-7839-40C5-AD56-409CA5F3474F}"/>
-    <hyperlink ref="S23" r:id="rId39" xr:uid="{C77B0C2E-9CF4-44A7-A419-3645D8EB14EA}"/>
-    <hyperlink ref="S19" r:id="rId40" xr:uid="{40D1AD5B-2B69-46C3-AA8F-2184E833E52A}"/>
-    <hyperlink ref="S20" r:id="rId41" xr:uid="{30248D2B-597F-4A8B-A318-F0F953E059AF}"/>
-    <hyperlink ref="S21" r:id="rId42" xr:uid="{0F3D9709-8B67-490E-A212-2DF90462EF1E}"/>
-    <hyperlink ref="S22" r:id="rId43" xr:uid="{053BC1EC-69FB-42A9-A7FE-CA75DEB3F4DD}"/>
-    <hyperlink ref="S28" r:id="rId44" xr:uid="{E5C0FF45-B7EF-4ECB-8B93-8F87A9F3A418}"/>
-    <hyperlink ref="S29" r:id="rId45" xr:uid="{C923CE86-DDF8-4A3A-B462-CB032AAC6D6B}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{1DF99250-FCC4-4CDE-9E39-92389F452132}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{18BCE232-46A2-4D57-861F-FCC85115E656}"/>
+    <hyperlink ref="P8" r:id="rId3" xr:uid="{D8FC05AA-5ABB-4F52-831B-29C9CDE60E69}"/>
+    <hyperlink ref="P4" r:id="rId4" xr:uid="{C699880F-6AB0-449F-9C30-C70D6C1AC872}"/>
+    <hyperlink ref="P5" r:id="rId5" xr:uid="{7F218567-04C0-429D-A28E-5E1ED2EB8BF7}"/>
+    <hyperlink ref="P6" r:id="rId6" xr:uid="{19F6BC8A-D2AE-466E-A240-9128C811BBBD}"/>
+    <hyperlink ref="P7" r:id="rId7" xr:uid="{1362885F-95A9-4DFA-9C51-E3AE2DE039A9}"/>
+    <hyperlink ref="P13" r:id="rId8" xr:uid="{421BB25F-4B0A-4936-9409-00B9AA63C144}"/>
+    <hyperlink ref="P14" r:id="rId9" xr:uid="{85EDAE6C-47C8-455B-925F-969216B62B47}"/>
+    <hyperlink ref="P58" r:id="rId10" xr:uid="{36A28264-F4E5-47A5-8096-5746838BDC02}"/>
+    <hyperlink ref="P32" r:id="rId11" xr:uid="{7FF514C2-35C0-44B2-82A1-908DCA08EDE1}"/>
+    <hyperlink ref="P33" r:id="rId12" xr:uid="{C295A068-44A2-4AAA-9095-E590EB7F1855}"/>
+    <hyperlink ref="P34" r:id="rId13" xr:uid="{9260BEB1-7D5B-428F-86C8-D0E69F280258}"/>
+    <hyperlink ref="P35" r:id="rId14" xr:uid="{E5F015E5-6D5A-46BB-A5EB-4041039B1901}"/>
+    <hyperlink ref="P36" r:id="rId15" xr:uid="{7ECCB36D-83D0-4BC3-B4E5-74CF9236A98D}"/>
+    <hyperlink ref="P37" r:id="rId16" xr:uid="{0ED99F13-7348-42DE-A627-C588F200EF97}"/>
+    <hyperlink ref="P38" r:id="rId17" xr:uid="{B1C2AFEF-F0D7-40C1-B699-B3D78E1A91F5}"/>
+    <hyperlink ref="P39" r:id="rId18" xr:uid="{29793FF2-CDC0-49FD-B51B-DC2E97C2354B}"/>
+    <hyperlink ref="P40" r:id="rId19" xr:uid="{9771EA71-8527-4601-B367-F474477313B6}"/>
+    <hyperlink ref="P41" r:id="rId20" xr:uid="{401463F3-7830-422D-AB34-A3B8915CE829}"/>
+    <hyperlink ref="P42" r:id="rId21" xr:uid="{288DE761-B507-4E73-B566-828B23E22FA2}"/>
+    <hyperlink ref="P43" r:id="rId22" xr:uid="{FB4E89FA-A896-4418-8345-7B7C3D1C5963}"/>
+    <hyperlink ref="P44" r:id="rId23" xr:uid="{746DB1A9-44E7-42FE-9F22-7A6EEEC5B58B}"/>
+    <hyperlink ref="P45" r:id="rId24" xr:uid="{D0B7063D-CB1B-4C95-B881-AD0D437FAF4B}"/>
+    <hyperlink ref="P46" r:id="rId25" xr:uid="{8ABEC8BC-1474-4291-9B1D-37D046C57A00}"/>
+    <hyperlink ref="P47" r:id="rId26" xr:uid="{27342942-1E83-4EEC-927E-83190BA12410}"/>
+    <hyperlink ref="P48" r:id="rId27" xr:uid="{F1F98BD8-1700-4DD1-BF15-5D206026A9BF}"/>
+    <hyperlink ref="P49" r:id="rId28" xr:uid="{B6DCB841-AF94-4309-8C87-BACB6CB4CDB6}"/>
+    <hyperlink ref="P50" r:id="rId29" xr:uid="{656A5928-0FE6-4DC5-B5A6-A9681B794D5E}"/>
+    <hyperlink ref="P51" r:id="rId30" xr:uid="{2E96D2A4-5259-4825-8D70-9F50CEA9CF17}"/>
+    <hyperlink ref="P52" r:id="rId31" xr:uid="{82DB4EF7-9168-4097-ACF4-8889C28E70BF}"/>
+    <hyperlink ref="P53" r:id="rId32" xr:uid="{651CDE70-F599-47CE-88CC-DB8EEB095CD5}"/>
+    <hyperlink ref="P54" r:id="rId33" xr:uid="{CE93C5B3-0499-47F2-8117-BAC4501130C7}"/>
+    <hyperlink ref="P55" r:id="rId34" xr:uid="{AD10775F-3928-4A84-804A-9D7EFBC798AE}"/>
+    <hyperlink ref="P56" r:id="rId35" xr:uid="{B480C2A7-4B4B-4054-8939-D7EEF243D1ED}"/>
+    <hyperlink ref="P57" r:id="rId36" xr:uid="{5C6A6274-D867-4B80-980F-B000A2E50AAB}"/>
+    <hyperlink ref="P17" r:id="rId37" xr:uid="{E4A0DD3B-C3C7-4CA6-8F43-199FE4C85D5B}"/>
+    <hyperlink ref="P18" r:id="rId38" xr:uid="{61A40BC6-7839-40C5-AD56-409CA5F3474F}"/>
+    <hyperlink ref="P23" r:id="rId39" xr:uid="{C77B0C2E-9CF4-44A7-A419-3645D8EB14EA}"/>
+    <hyperlink ref="P19" r:id="rId40" xr:uid="{40D1AD5B-2B69-46C3-AA8F-2184E833E52A}"/>
+    <hyperlink ref="P20" r:id="rId41" xr:uid="{30248D2B-597F-4A8B-A318-F0F953E059AF}"/>
+    <hyperlink ref="P21" r:id="rId42" xr:uid="{0F3D9709-8B67-490E-A212-2DF90462EF1E}"/>
+    <hyperlink ref="P22" r:id="rId43" xr:uid="{053BC1EC-69FB-42A9-A7FE-CA75DEB3F4DD}"/>
+    <hyperlink ref="P28" r:id="rId44" xr:uid="{E5C0FF45-B7EF-4ECB-8B93-8F87A9F3A418}"/>
+    <hyperlink ref="P29" r:id="rId45" xr:uid="{C923CE86-DDF8-4A3A-B462-CB032AAC6D6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>

--- a/data/datasets/fossil/fossil_ds.xlsx
+++ b/data/datasets/fossil/fossil_ds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Me\GitHub\KYC\data\datasets\fossil\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7CC960-A910-4AE9-A46D-19E2EE97C9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE6162D-2C01-4D65-9489-437707D29913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{9FFA3018-9BE3-4B15-9A2D-65E1C440FC8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FFA3018-9BE3-4B15-9A2D-65E1C440FC8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,152 +36,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="282">
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/2/23/AerodactylFossil16.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/a/a0/ArticunoFossil17.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/d/d4/DittoFossil3.jpg</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="239">
   <si>
     <t>40x</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/d/d5/DragoniteFossil4.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/a/a6/GengarFossil5.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/a/af/HaunterFossil6.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/d/de/HitmonleeFossil7.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/d/d0/HypnoFossil8.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/b/bc/KabutopsFossil9.jpg</t>
-  </si>
-  <si>
     <t>10+</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/4/47/LaprasFossil10.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/5/53/MagnetonFossil11.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/1/1d/MoltresFossil12.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/8/85/MukFossil13.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/6/6d/RaichuFossil14.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/f/fb/ZapdosFossil30.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/6/63/ArbokFossil31.jpg</t>
-  </si>
-  <si>
     <t>30x</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/1/14/CloysterFossil32.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/c/c1/GastlyFossil33.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/d/db/GolbatFossil34.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/1/13/GolduckFossil35.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/6/62/GolemFossil36.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/b/bb/GravelerFossil37.jpg</t>
-  </si>
-  <si>
     <t>10x</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/3/30/KinglerFossil38.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/8/81/MagmarFossil39.jpg</t>
-  </si>
-  <si>
     <t>20+</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/3/3e/OmastarFossil40.jpg</t>
-  </si>
-  <si>
     <t>20x</t>
   </si>
   <si>
-    <t>https://media.pokemoncentral.it/wiki/a/ae/SandslashFossil41.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/1/1b/SeadraFossil42.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/8/8a/SlowbroFossil43.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/f/f0/TentacruelFossil44.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/7/76/WeezingFossil45.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/d/d8/EkansFossil46.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/5/57/GeodudeFossil47.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/3/3e/GrimerFossil48.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/b/be/HorseaFossil49.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/4/4d/KabutoFossil50.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/b/b3/KrabbyFossil51.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/9/9e/OmanyteFossil52.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/9/95/PsyduckFossil53.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/a/ac/ShellderFossil54.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/d/d9/SlowpokeFossil55.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/f/f8/TentacoolFossil56.jpg</t>
-  </si>
-  <si>
-    <t>https://media.pokemoncentral.it/wiki/a/a9/ZubatFossil57.jpg</t>
-  </si>
-  <si>
     <t>mr. Fuji</t>
   </si>
   <si>
@@ -302,9 +176,6 @@
     <t>Kabuto</t>
   </si>
   <si>
-    <t xml:space="preserve">Krabby </t>
-  </si>
-  <si>
     <t>Omanyte</t>
   </si>
   <si>
@@ -359,9 +230,6 @@
     <t>Resistenza</t>
   </si>
   <si>
-    <t>Img</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -1400,24 +1268,19 @@
       </rPr>
       <t>. If Zubat has fewer damage counters than that, remove all of them.</t>
     </r>
+  </si>
+  <si>
+    <t>Krabby</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1460,13 +1323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1474,10 +1335,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1790,21 +1649,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0056F4C-6301-4B1E-98A1-143629FF2C15}">
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1812,2705 +1671,2483 @@
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2">
         <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H2" s="4">
+        <v>125</v>
+      </c>
+      <c r="H2" s="3">
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="N2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="P2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E3">
         <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H3" s="4">
+        <v>126</v>
+      </c>
+      <c r="H3" s="3">
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="K3">
         <v>50</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>128</v>
       </c>
       <c r="R3" t="s">
-        <v>172</v>
-      </c>
-      <c r="S3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="P4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="4">
+        <v>99</v>
+      </c>
+      <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>151</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>4</v>
+        <v>107</v>
+      </c>
+      <c r="P5" t="s">
+        <v>132</v>
       </c>
       <c r="Q5" t="s">
-        <v>176</v>
-      </c>
-      <c r="R5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="4">
+        <v>99</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="4">
+        <v>138</v>
+      </c>
+      <c r="H6" s="3">
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>151</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
+      </c>
+      <c r="P6" t="s">
+        <v>137</v>
       </c>
       <c r="Q6" t="s">
-        <v>181</v>
-      </c>
-      <c r="R6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="4">
+        <v>99</v>
+      </c>
+      <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7">
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H7" s="4">
+        <v>141</v>
+      </c>
+      <c r="H7" s="3">
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="N7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="P7" t="s">
+        <v>142</v>
       </c>
       <c r="Q7" t="s">
-        <v>186</v>
-      </c>
-      <c r="R7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E8">
         <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="I8" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="K8">
         <v>50</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O8" t="s">
-        <v>151</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="4">
+        <v>99</v>
+      </c>
+      <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9">
         <v>90</v>
       </c>
       <c r="G9" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="M9" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s">
-        <v>150</v>
-      </c>
-      <c r="P9" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>148</v>
       </c>
       <c r="R9" t="s">
-        <v>192</v>
-      </c>
-      <c r="S9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="4">
+        <v>99</v>
+      </c>
+      <c r="D10" s="3">
         <v>2</v>
       </c>
       <c r="E10">
         <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="4">
+        <v>149</v>
+      </c>
+      <c r="H10" s="3">
         <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" t="s">
-        <v>9</v>
-      </c>
-      <c r="S10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="R10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E11">
         <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>10</v>
+        <v>152</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M11" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" t="s">
-        <v>11</v>
+        <v>106</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>153</v>
       </c>
       <c r="R11" t="s">
-        <v>197</v>
-      </c>
-      <c r="S11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="4">
+        <v>99</v>
+      </c>
+      <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12">
         <v>80</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H12" s="4">
+        <v>52</v>
+      </c>
+      <c r="H12" s="3">
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K12">
         <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>150</v>
-      </c>
-      <c r="P12" t="s">
-        <v>12</v>
+        <v>106</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>156</v>
       </c>
       <c r="R12" t="s">
-        <v>200</v>
-      </c>
-      <c r="S12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E13">
         <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="K13">
         <v>80</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="N13" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>160</v>
       </c>
       <c r="R13" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="4">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3">
         <v>1</v>
       </c>
       <c r="E14">
         <v>70</v>
       </c>
       <c r="F14" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H14" s="4">
+        <v>165</v>
+      </c>
+      <c r="H14" s="3">
         <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="M14" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O14" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="P14" t="s">
+        <v>164</v>
       </c>
       <c r="Q14" t="s">
-        <v>208</v>
-      </c>
-      <c r="R14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
-      </c>
-      <c r="D15" s="4">
+        <v>99</v>
+      </c>
+      <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15">
         <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H15" s="4">
+        <v>167</v>
+      </c>
+      <c r="H15" s="3">
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="O15" t="s">
-        <v>151</v>
-      </c>
-      <c r="P15" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>148</v>
+        <v>99</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E16">
         <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="4">
+        <v>169</v>
+      </c>
+      <c r="H16" s="3">
         <v>40</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
-      </c>
-      <c r="P16" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="D17" s="3">
         <v>1</v>
       </c>
       <c r="E17">
         <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
-      </c>
-      <c r="H17" s="4">
+        <v>125</v>
+      </c>
+      <c r="H17" s="3">
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="O17" t="s">
-        <v>150</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="P17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>148</v>
+        <v>101</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E18">
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="4">
+        <v>126</v>
+      </c>
+      <c r="H18" s="3">
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="K18">
         <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="N18" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="O18" t="s">
-        <v>150</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>128</v>
       </c>
       <c r="R18" t="s">
-        <v>172</v>
-      </c>
-      <c r="S18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E19">
         <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="M19" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="N19" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="O19" t="s">
-        <v>151</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="P19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="4">
+        <v>100</v>
+      </c>
+      <c r="D20" s="3">
         <v>2</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="G20" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>3</v>
+        <v>134</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>151</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>4</v>
+        <v>107</v>
+      </c>
+      <c r="P20" t="s">
+        <v>132</v>
       </c>
       <c r="Q20" t="s">
-        <v>176</v>
-      </c>
-      <c r="R20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="4">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21">
         <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="4">
+        <v>138</v>
+      </c>
+      <c r="H21" s="3">
         <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O21" t="s">
-        <v>151</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>5</v>
+        <v>107</v>
+      </c>
+      <c r="P21" t="s">
+        <v>137</v>
       </c>
       <c r="Q21" t="s">
-        <v>181</v>
-      </c>
-      <c r="R21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="4">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3">
         <v>1</v>
       </c>
       <c r="E22">
         <v>50</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
-      </c>
-      <c r="H22" s="4">
+        <v>141</v>
+      </c>
+      <c r="H22" s="3">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="N22" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="P22" t="s">
+        <v>142</v>
       </c>
       <c r="Q22" t="s">
-        <v>186</v>
-      </c>
-      <c r="R22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="K23">
         <v>50</v>
       </c>
       <c r="L23" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O23" t="s">
-        <v>151</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="4">
+        <v>100</v>
+      </c>
+      <c r="D24" s="3">
         <v>1</v>
       </c>
       <c r="E24">
         <v>90</v>
       </c>
       <c r="G24" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="K24">
         <v>30</v>
       </c>
       <c r="L24" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="M24" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O24" t="s">
-        <v>150</v>
-      </c>
-      <c r="P24" t="s">
-        <v>8</v>
+        <v>106</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>148</v>
       </c>
       <c r="R24" t="s">
-        <v>192</v>
-      </c>
-      <c r="S24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="4">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
         <v>2</v>
       </c>
       <c r="E25">
         <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>193</v>
-      </c>
-      <c r="H25" s="4">
+        <v>149</v>
+      </c>
+      <c r="H25" s="3">
         <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="K25">
         <v>40</v>
       </c>
       <c r="L25" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="M25" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
-        <v>150</v>
-      </c>
-      <c r="P25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="R25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E26">
         <v>80</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>10</v>
+        <v>152</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="K26">
         <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M26" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O26" t="s">
-        <v>150</v>
-      </c>
-      <c r="P26" t="s">
-        <v>11</v>
+        <v>106</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>153</v>
       </c>
       <c r="R26" t="s">
-        <v>197</v>
-      </c>
-      <c r="S26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="4">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27">
         <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="4">
+        <v>52</v>
+      </c>
+      <c r="H27" s="3">
         <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K27">
         <v>100</v>
       </c>
       <c r="L27" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="O27" t="s">
-        <v>150</v>
-      </c>
-      <c r="P27" t="s">
-        <v>12</v>
+        <v>106</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>156</v>
       </c>
       <c r="R27" t="s">
-        <v>200</v>
-      </c>
-      <c r="S27" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E28">
         <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="I28" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="K28">
         <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="N28" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O28" t="s">
-        <v>150</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>13</v>
+        <v>106</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>160</v>
       </c>
       <c r="R28" t="s">
-        <v>204</v>
-      </c>
-      <c r="S28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="4">
+        <v>100</v>
+      </c>
+      <c r="D29" s="3">
         <v>1</v>
       </c>
       <c r="E29">
         <v>70</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="G29" t="s">
-        <v>209</v>
-      </c>
-      <c r="H29" s="4">
+        <v>165</v>
+      </c>
+      <c r="H29" s="3">
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="M29" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O29" t="s">
-        <v>150</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="P29" t="s">
+        <v>164</v>
       </c>
       <c r="Q29" t="s">
-        <v>208</v>
-      </c>
-      <c r="R29" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="4">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30">
         <v>90</v>
       </c>
       <c r="G30" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="4">
+        <v>167</v>
+      </c>
+      <c r="H30" s="3">
         <v>30</v>
       </c>
       <c r="I30" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>151</v>
-      </c>
-      <c r="P30" t="s">
-        <v>15</v>
-      </c>
-      <c r="R30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>148</v>
+        <v>100</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E31">
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" s="4">
+        <v>169</v>
+      </c>
+      <c r="H31" s="3">
         <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="N31" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="O31" t="s">
-        <v>150</v>
-      </c>
-      <c r="P31" t="s">
-        <v>16</v>
-      </c>
-      <c r="R31" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="4">
+        <v>102</v>
+      </c>
+      <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32">
         <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="4">
+        <v>171</v>
+      </c>
+      <c r="H32" s="3">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="J32" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
       <c r="K32">
         <v>20</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O32" t="s">
-        <v>150</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>17</v>
+        <v>106</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>172</v>
       </c>
       <c r="R32" t="s">
-        <v>216</v>
-      </c>
-      <c r="S32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="4">
+        <v>102</v>
+      </c>
+      <c r="D33" s="3">
         <v>1</v>
       </c>
       <c r="E33">
         <v>50</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" s="4">
+        <v>175</v>
+      </c>
+      <c r="H33" s="3">
         <v>30</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L33" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M33" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O33" t="s">
-        <v>150</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>177</v>
       </c>
       <c r="R33" t="s">
-        <v>221</v>
-      </c>
-      <c r="S33" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>148</v>
+        <v>102</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E34">
         <v>50</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" s="4">
+        <v>179</v>
+      </c>
+      <c r="H34" s="3">
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="J34" t="s">
-        <v>224</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="N34" t="s">
-        <v>114</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>128</v>
       </c>
       <c r="R34" t="s">
-        <v>172</v>
-      </c>
-      <c r="S34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="4">
+        <v>102</v>
+      </c>
+      <c r="D35" s="3">
         <v>1</v>
       </c>
       <c r="E35">
         <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>169</v>
-      </c>
-      <c r="H35" s="4">
+        <v>125</v>
+      </c>
+      <c r="H35" s="3">
         <v>30</v>
       </c>
       <c r="I35" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="J35" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="K35">
         <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="N35" t="s">
-        <v>114</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S35" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="R35" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="4">
+        <v>102</v>
+      </c>
+      <c r="D36" s="3">
         <v>1</v>
       </c>
       <c r="E36">
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="4">
+        <v>184</v>
+      </c>
+      <c r="H36" s="3">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="J36" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="K36">
         <v>20</v>
       </c>
       <c r="L36" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="M36" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O36" t="s">
-        <v>151</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>128</v>
       </c>
       <c r="R36" t="s">
-        <v>172</v>
-      </c>
-      <c r="S36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="4">
+        <v>102</v>
+      </c>
+      <c r="D37" s="3">
         <v>2</v>
       </c>
       <c r="E37">
         <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>231</v>
-      </c>
-      <c r="H37" s="4">
+        <v>187</v>
+      </c>
+      <c r="H37" s="3">
         <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="J37" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K37">
         <v>100</v>
       </c>
       <c r="L37" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O37" t="s">
-        <v>152</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="R37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="4">
+        <v>102</v>
+      </c>
+      <c r="D38" s="3">
         <v>1</v>
       </c>
       <c r="E38">
         <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="J38" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="K38">
         <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>158</v>
+        <v>114</v>
       </c>
       <c r="M38" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O38" t="s">
-        <v>150</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
       <c r="C39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="4">
+        <v>102</v>
+      </c>
+      <c r="D39" s="3">
         <v>1</v>
       </c>
       <c r="E39">
         <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>25</v>
+        <v>192</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="K39">
         <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="M39" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O39" t="s">
-        <v>149</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>148</v>
+        <v>102</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E40">
         <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>239</v>
-      </c>
-      <c r="H40" s="4">
+        <v>195</v>
+      </c>
+      <c r="H40" s="3">
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="J40" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="K40">
         <v>20</v>
       </c>
       <c r="L40" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="M40" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="O40" t="s">
-        <v>151</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>196</v>
       </c>
       <c r="R40" t="s">
-        <v>240</v>
-      </c>
-      <c r="S40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
-      </c>
-      <c r="D41" s="4">
+        <v>102</v>
+      </c>
+      <c r="D41" s="3">
         <v>2</v>
       </c>
       <c r="E41">
         <v>70</v>
       </c>
       <c r="G41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>28</v>
+        <v>152</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="J41" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="K41" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L41" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M41" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O41" t="s">
-        <v>151</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>197</v>
       </c>
       <c r="R41" t="s">
-        <v>241</v>
-      </c>
-      <c r="S41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
-      </c>
-      <c r="D42" s="4">
+        <v>102</v>
+      </c>
+      <c r="D42" s="3">
         <v>1</v>
       </c>
       <c r="E42">
         <v>70</v>
       </c>
       <c r="G42" t="s">
-        <v>242</v>
-      </c>
-      <c r="H42" s="4">
+        <v>198</v>
+      </c>
+      <c r="H42" s="3">
         <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="J42" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="K42" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="L42" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="M42" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="N42" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="O42" t="s">
-        <v>151</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S42" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="R42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" s="4">
+        <v>102</v>
+      </c>
+      <c r="D43" s="3">
         <v>1</v>
       </c>
       <c r="E43">
         <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>28</v>
+        <v>152</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="J43" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="K43">
         <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="M43" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O43" t="s">
-        <v>151</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>201</v>
       </c>
       <c r="R43" t="s">
-        <v>245</v>
-      </c>
-      <c r="S43" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" s="4">
+        <v>102</v>
+      </c>
+      <c r="D44" s="3">
         <v>1</v>
       </c>
       <c r="E44">
         <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="G44" t="s">
-        <v>228</v>
-      </c>
-      <c r="H44" s="4">
+        <v>184</v>
+      </c>
+      <c r="H44" s="3">
         <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O44" t="s">
-        <v>151</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>33</v>
+        <v>107</v>
+      </c>
+      <c r="P44" t="s">
+        <v>205</v>
       </c>
       <c r="Q44" t="s">
-        <v>249</v>
-      </c>
-      <c r="R44" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="4">
+        <v>102</v>
+      </c>
+      <c r="D45" s="3">
         <v>1</v>
       </c>
       <c r="E45">
         <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="I45" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s">
-        <v>251</v>
+        <v>207</v>
       </c>
       <c r="K45">
         <v>10</v>
       </c>
       <c r="L45" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="M45" t="s">
-        <v>131</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>154</v>
       </c>
       <c r="R45" t="s">
-        <v>198</v>
-      </c>
-      <c r="S45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="4">
+        <v>102</v>
+      </c>
+      <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46">
         <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
-      </c>
-      <c r="H46" s="4">
+        <v>53</v>
+      </c>
+      <c r="H46" s="3">
         <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="J46" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K46">
         <v>60</v>
       </c>
       <c r="L46" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="M46" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O46" t="s">
-        <v>151</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>35</v>
+        <v>107</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>166</v>
       </c>
       <c r="R46" t="s">
-        <v>210</v>
-      </c>
-      <c r="S46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E47">
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="I47" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="J47" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="K47">
         <v>20</v>
       </c>
       <c r="L47" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="M47" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O47" t="s">
-        <v>151</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>36</v>
+        <v>107</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>166</v>
       </c>
       <c r="R47" t="s">
-        <v>210</v>
-      </c>
-      <c r="S47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E48">
         <v>50</v>
       </c>
       <c r="G48" t="s">
-        <v>255</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>25</v>
+        <v>211</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="M48" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O48" t="s">
-        <v>151</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R48" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E49">
         <v>50</v>
       </c>
       <c r="G49" t="s">
-        <v>257</v>
-      </c>
-      <c r="H49" s="4">
+        <v>213</v>
+      </c>
+      <c r="H49" s="3">
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="J49" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="M49" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O49" t="s">
-        <v>151</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>38</v>
+        <v>107</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>128</v>
       </c>
       <c r="R49" t="s">
-        <v>172</v>
-      </c>
-      <c r="S49" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E50">
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>239</v>
-      </c>
-      <c r="H50" s="4">
+        <v>195</v>
+      </c>
+      <c r="H50" s="3">
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="M50" t="s">
-        <v>131</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="4">
+        <v>103</v>
+      </c>
+      <c r="D51" s="3">
         <v>1</v>
       </c>
       <c r="E51">
         <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="G51" t="s">
-        <v>260</v>
-      </c>
-      <c r="H51" s="4">
+        <v>216</v>
+      </c>
+      <c r="H51" s="3">
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O51" t="s">
-        <v>151</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="P51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E52">
         <v>50</v>
       </c>
       <c r="G52" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="I52" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="K52">
         <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="M52" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O52" t="s">
-        <v>150</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R52" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="4">
+        <v>103</v>
+      </c>
+      <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="E53">
         <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="G53" t="s">
-        <v>196</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>10</v>
+        <v>152</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="M53" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O53" t="s">
-        <v>151</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>42</v>
+        <v>107</v>
+      </c>
+      <c r="P53" t="s">
+        <v>223</v>
       </c>
       <c r="Q53" t="s">
-        <v>267</v>
-      </c>
-      <c r="R53" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E54">
         <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="I54" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s">
-        <v>243</v>
+        <v>199</v>
       </c>
       <c r="K54" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L54" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="M54" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O54" t="s">
-        <v>151</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>43</v>
+        <v>107</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>226</v>
       </c>
       <c r="R54" t="s">
-        <v>270</v>
-      </c>
-      <c r="S54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E55">
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="I55" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="L55" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="M55" t="s">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O55" t="s">
-        <v>151</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>154</v>
       </c>
       <c r="R55" t="s">
-        <v>198</v>
-      </c>
-      <c r="S55" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E56">
         <v>50</v>
       </c>
       <c r="G56" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="J56" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="L56" t="s">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="M56" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="O56" t="s">
-        <v>151</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>45</v>
+        <v>107</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>232</v>
       </c>
       <c r="R56" t="s">
-        <v>276</v>
-      </c>
-      <c r="S56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E57">
         <v>30</v>
       </c>
       <c r="F57" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="G57" t="s">
-        <v>280</v>
-      </c>
-      <c r="H57" s="4">
+        <v>236</v>
+      </c>
+      <c r="H57" s="3">
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
       <c r="M57" t="s">
-        <v>131</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="P57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" t="s">
         <v>94</v>
       </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" t="s">
-        <v>147</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="E58">
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="J58" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
       <c r="K58">
         <v>10</v>
       </c>
       <c r="L58" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="M58" t="s">
-        <v>126</v>
+        <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>114</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>154</v>
       </c>
       <c r="R58" t="s">
-        <v>198</v>
-      </c>
-      <c r="S58" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{1DF99250-FCC4-4CDE-9E39-92389F452132}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{18BCE232-46A2-4D57-861F-FCC85115E656}"/>
-    <hyperlink ref="P8" r:id="rId3" xr:uid="{D8FC05AA-5ABB-4F52-831B-29C9CDE60E69}"/>
-    <hyperlink ref="P4" r:id="rId4" xr:uid="{C699880F-6AB0-449F-9C30-C70D6C1AC872}"/>
-    <hyperlink ref="P5" r:id="rId5" xr:uid="{7F218567-04C0-429D-A28E-5E1ED2EB8BF7}"/>
-    <hyperlink ref="P6" r:id="rId6" xr:uid="{19F6BC8A-D2AE-466E-A240-9128C811BBBD}"/>
-    <hyperlink ref="P7" r:id="rId7" xr:uid="{1362885F-95A9-4DFA-9C51-E3AE2DE039A9}"/>
-    <hyperlink ref="P13" r:id="rId8" xr:uid="{421BB25F-4B0A-4936-9409-00B9AA63C144}"/>
-    <hyperlink ref="P14" r:id="rId9" xr:uid="{85EDAE6C-47C8-455B-925F-969216B62B47}"/>
-    <hyperlink ref="P58" r:id="rId10" xr:uid="{36A28264-F4E5-47A5-8096-5746838BDC02}"/>
-    <hyperlink ref="P32" r:id="rId11" xr:uid="{7FF514C2-35C0-44B2-82A1-908DCA08EDE1}"/>
-    <hyperlink ref="P33" r:id="rId12" xr:uid="{C295A068-44A2-4AAA-9095-E590EB7F1855}"/>
-    <hyperlink ref="P34" r:id="rId13" xr:uid="{9260BEB1-7D5B-428F-86C8-D0E69F280258}"/>
-    <hyperlink ref="P35" r:id="rId14" xr:uid="{E5F015E5-6D5A-46BB-A5EB-4041039B1901}"/>
-    <hyperlink ref="P36" r:id="rId15" xr:uid="{7ECCB36D-83D0-4BC3-B4E5-74CF9236A98D}"/>
-    <hyperlink ref="P37" r:id="rId16" xr:uid="{0ED99F13-7348-42DE-A627-C588F200EF97}"/>
-    <hyperlink ref="P38" r:id="rId17" xr:uid="{B1C2AFEF-F0D7-40C1-B699-B3D78E1A91F5}"/>
-    <hyperlink ref="P39" r:id="rId18" xr:uid="{29793FF2-CDC0-49FD-B51B-DC2E97C2354B}"/>
-    <hyperlink ref="P40" r:id="rId19" xr:uid="{9771EA71-8527-4601-B367-F474477313B6}"/>
-    <hyperlink ref="P41" r:id="rId20" xr:uid="{401463F3-7830-422D-AB34-A3B8915CE829}"/>
-    <hyperlink ref="P42" r:id="rId21" xr:uid="{288DE761-B507-4E73-B566-828B23E22FA2}"/>
-    <hyperlink ref="P43" r:id="rId22" xr:uid="{FB4E89FA-A896-4418-8345-7B7C3D1C5963}"/>
-    <hyperlink ref="P44" r:id="rId23" xr:uid="{746DB1A9-44E7-42FE-9F22-7A6EEEC5B58B}"/>
-    <hyperlink ref="P45" r:id="rId24" xr:uid="{D0B7063D-CB1B-4C95-B881-AD0D437FAF4B}"/>
-    <hyperlink ref="P46" r:id="rId25" xr:uid="{8ABEC8BC-1474-4291-9B1D-37D046C57A00}"/>
-    <hyperlink ref="P47" r:id="rId26" xr:uid="{27342942-1E83-4EEC-927E-83190BA12410}"/>
-    <hyperlink ref="P48" r:id="rId27" xr:uid="{F1F98BD8-1700-4DD1-BF15-5D206026A9BF}"/>
-    <hyperlink ref="P49" r:id="rId28" xr:uid="{B6DCB841-AF94-4309-8C87-BACB6CB4CDB6}"/>
-    <hyperlink ref="P50" r:id="rId29" xr:uid="{656A5928-0FE6-4DC5-B5A6-A9681B794D5E}"/>
-    <hyperlink ref="P51" r:id="rId30" xr:uid="{2E96D2A4-5259-4825-8D70-9F50CEA9CF17}"/>
-    <hyperlink ref="P52" r:id="rId31" xr:uid="{82DB4EF7-9168-4097-ACF4-8889C28E70BF}"/>
-    <hyperlink ref="P53" r:id="rId32" xr:uid="{651CDE70-F599-47CE-88CC-DB8EEB095CD5}"/>
-    <hyperlink ref="P54" r:id="rId33" xr:uid="{CE93C5B3-0499-47F2-8117-BAC4501130C7}"/>
-    <hyperlink ref="P55" r:id="rId34" xr:uid="{AD10775F-3928-4A84-804A-9D7EFBC798AE}"/>
-    <hyperlink ref="P56" r:id="rId35" xr:uid="{B480C2A7-4B4B-4054-8939-D7EEF243D1ED}"/>
-    <hyperlink ref="P57" r:id="rId36" xr:uid="{5C6A6274-D867-4B80-980F-B000A2E50AAB}"/>
-    <hyperlink ref="P17" r:id="rId37" xr:uid="{E4A0DD3B-C3C7-4CA6-8F43-199FE4C85D5B}"/>
-    <hyperlink ref="P18" r:id="rId38" xr:uid="{61A40BC6-7839-40C5-AD56-409CA5F3474F}"/>
-    <hyperlink ref="P23" r:id="rId39" xr:uid="{C77B0C2E-9CF4-44A7-A419-3645D8EB14EA}"/>
-    <hyperlink ref="P19" r:id="rId40" xr:uid="{40D1AD5B-2B69-46C3-AA8F-2184E833E52A}"/>
-    <hyperlink ref="P20" r:id="rId41" xr:uid="{30248D2B-597F-4A8B-A318-F0F953E059AF}"/>
-    <hyperlink ref="P21" r:id="rId42" xr:uid="{0F3D9709-8B67-490E-A212-2DF90462EF1E}"/>
-    <hyperlink ref="P22" r:id="rId43" xr:uid="{053BC1EC-69FB-42A9-A7FE-CA75DEB3F4DD}"/>
-    <hyperlink ref="P28" r:id="rId44" xr:uid="{E5C0FF45-B7EF-4ECB-8B93-8F87A9F3A418}"/>
-    <hyperlink ref="P29" r:id="rId45" xr:uid="{C923CE86-DDF8-4A3A-B462-CB032AAC6D6B}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>